--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icos-Icosl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icos-Icosl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Icos</t>
+  </si>
+  <si>
+    <t>Icosl</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Icos</t>
-  </si>
-  <si>
-    <t>Icosl</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.047794</v>
+        <v>0.107019</v>
       </c>
       <c r="H2">
-        <v>0.143382</v>
+        <v>0.321057</v>
       </c>
       <c r="I2">
-        <v>0.164386482845596</v>
+        <v>0.2365534751714524</v>
       </c>
       <c r="J2">
-        <v>0.164386482845596</v>
+        <v>0.2365534751714524</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.55160266666667</v>
+        <v>0.5407596666666666</v>
       </c>
       <c r="N2">
-        <v>37.654808</v>
+        <v>1.622279</v>
       </c>
       <c r="O2">
-        <v>0.5004834597846365</v>
+        <v>0.03618231591230665</v>
       </c>
       <c r="P2">
-        <v>0.5004834597846365</v>
+        <v>0.03618231591230665</v>
       </c>
       <c r="Q2">
-        <v>0.5998912978506666</v>
+        <v>0.05787155876699999</v>
       </c>
       <c r="R2">
-        <v>5.399021680655999</v>
+        <v>0.5208440289029999</v>
       </c>
       <c r="S2">
-        <v>0.08227271567639169</v>
+        <v>0.00855905256880748</v>
       </c>
       <c r="T2">
-        <v>0.08227271567639169</v>
+        <v>0.00855905256880748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.047794</v>
+        <v>0.107019</v>
       </c>
       <c r="H3">
-        <v>0.143382</v>
+        <v>0.321057</v>
       </c>
       <c r="I3">
-        <v>0.164386482845596</v>
+        <v>0.2365534751714524</v>
       </c>
       <c r="J3">
-        <v>0.164386482845596</v>
+        <v>0.2365534751714524</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>33.972499</v>
       </c>
       <c r="O3">
-        <v>0.4515405798125461</v>
+        <v>0.7577017832003755</v>
       </c>
       <c r="P3">
-        <v>0.4515405798125461</v>
+        <v>0.7577017832003754</v>
       </c>
       <c r="Q3">
-        <v>0.5412272057353332</v>
+        <v>1.211900956827</v>
       </c>
       <c r="R3">
-        <v>4.871044851618</v>
+        <v>10.907108611443</v>
       </c>
       <c r="S3">
-        <v>0.07422716777744559</v>
+        <v>0.1792369899596553</v>
       </c>
       <c r="T3">
-        <v>0.07422716777744559</v>
+        <v>0.1792369899596552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.047794</v>
+        <v>0.107019</v>
       </c>
       <c r="H4">
-        <v>0.143382</v>
+        <v>0.321057</v>
       </c>
       <c r="I4">
-        <v>0.164386482845596</v>
+        <v>0.2365534751714524</v>
       </c>
       <c r="J4">
-        <v>0.164386482845596</v>
+        <v>0.2365534751714524</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.203187</v>
+        <v>3.080487333333333</v>
       </c>
       <c r="N4">
-        <v>3.609561</v>
+        <v>9.241461999999999</v>
       </c>
       <c r="O4">
-        <v>0.04797596040281741</v>
+        <v>0.2061159008873179</v>
       </c>
       <c r="P4">
-        <v>0.0479759604028174</v>
+        <v>0.2061159008873179</v>
       </c>
       <c r="Q4">
-        <v>0.05750511947799999</v>
+        <v>0.3296706739259999</v>
       </c>
       <c r="R4">
-        <v>0.5175460753019999</v>
+        <v>2.967036065333999</v>
       </c>
       <c r="S4">
-        <v>0.007886599391758738</v>
+        <v>0.04875743264298971</v>
       </c>
       <c r="T4">
-        <v>0.007886599391758736</v>
+        <v>0.04875743264298971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.107019</v>
+        <v>0.3453903333333333</v>
       </c>
       <c r="H5">
-        <v>0.321057</v>
+        <v>1.036171</v>
       </c>
       <c r="I5">
-        <v>0.3680896557654276</v>
+        <v>0.7634465248285476</v>
       </c>
       <c r="J5">
-        <v>0.3680896557654275</v>
+        <v>0.7634465248285476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.55160266666667</v>
+        <v>0.5407596666666666</v>
       </c>
       <c r="N5">
-        <v>37.654808</v>
+        <v>1.622279</v>
       </c>
       <c r="O5">
-        <v>0.5004834597846365</v>
+        <v>0.03618231591230665</v>
       </c>
       <c r="P5">
-        <v>0.5004834597846365</v>
+        <v>0.03618231591230665</v>
       </c>
       <c r="Q5">
-        <v>1.343259965784</v>
+        <v>0.1867731615232222</v>
       </c>
       <c r="R5">
-        <v>12.089339692056</v>
+        <v>1.680958453709</v>
       </c>
       <c r="S5">
-        <v>0.1842227844284171</v>
+        <v>0.02762326334349917</v>
       </c>
       <c r="T5">
-        <v>0.184222784428417</v>
+        <v>0.02762326334349917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.107019</v>
+        <v>0.3453903333333333</v>
       </c>
       <c r="H6">
-        <v>0.321057</v>
+        <v>1.036171</v>
       </c>
       <c r="I6">
-        <v>0.3680896557654276</v>
+        <v>0.7634465248285476</v>
       </c>
       <c r="J6">
-        <v>0.3680896557654275</v>
+        <v>0.7634465248285476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>33.972499</v>
       </c>
       <c r="O6">
-        <v>0.4515405798125461</v>
+        <v>0.7577017832003755</v>
       </c>
       <c r="P6">
-        <v>0.4515405798125461</v>
+        <v>0.7577017832003754</v>
       </c>
       <c r="Q6">
-        <v>1.211900956827</v>
+        <v>3.91125758459211</v>
       </c>
       <c r="R6">
-        <v>10.907108611443</v>
+        <v>35.201318261329</v>
       </c>
       <c r="S6">
-        <v>0.1662074165873217</v>
+        <v>0.5784647932407203</v>
       </c>
       <c r="T6">
-        <v>0.1662074165873217</v>
+        <v>0.5784647932407202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.107019</v>
+        <v>0.3453903333333333</v>
       </c>
       <c r="H7">
-        <v>0.321057</v>
+        <v>1.036171</v>
       </c>
       <c r="I7">
-        <v>0.3680896557654276</v>
+        <v>0.7634465248285476</v>
       </c>
       <c r="J7">
-        <v>0.3680896557654275</v>
+        <v>0.7634465248285476</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.203187</v>
+        <v>3.080487333333333</v>
       </c>
       <c r="N7">
-        <v>3.609561</v>
+        <v>9.241461999999999</v>
       </c>
       <c r="O7">
-        <v>0.04797596040281741</v>
+        <v>0.2061159008873179</v>
       </c>
       <c r="P7">
-        <v>0.0479759604028174</v>
+        <v>0.2061159008873179</v>
       </c>
       <c r="Q7">
-        <v>0.128763869553</v>
+        <v>1.063970546889111</v>
       </c>
       <c r="R7">
-        <v>1.158874825977</v>
+        <v>9.575734922001997</v>
       </c>
       <c r="S7">
-        <v>0.01765945474968884</v>
+        <v>0.1573584682443282</v>
       </c>
       <c r="T7">
-        <v>0.01765945474968884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1359286666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.407786</v>
-      </c>
-      <c r="I8">
-        <v>0.4675238613889764</v>
-      </c>
-      <c r="J8">
-        <v>0.4675238613889765</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>12.55160266666667</v>
-      </c>
-      <c r="N8">
-        <v>37.654808</v>
-      </c>
-      <c r="O8">
-        <v>0.5004834597846365</v>
-      </c>
-      <c r="P8">
-        <v>0.5004834597846365</v>
-      </c>
-      <c r="Q8">
-        <v>1.706122615009778</v>
-      </c>
-      <c r="R8">
-        <v>15.355103535088</v>
-      </c>
-      <c r="S8">
-        <v>0.2339879596798277</v>
-      </c>
-      <c r="T8">
-        <v>0.2339879596798278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1359286666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.407786</v>
-      </c>
-      <c r="I9">
-        <v>0.4675238613889764</v>
-      </c>
-      <c r="J9">
-        <v>0.4675238613889765</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.32416633333333</v>
-      </c>
-      <c r="N9">
-        <v>33.972499</v>
-      </c>
-      <c r="O9">
-        <v>0.4515405798125461</v>
-      </c>
-      <c r="P9">
-        <v>0.4515405798125461</v>
-      </c>
-      <c r="Q9">
-        <v>1.539278830801555</v>
-      </c>
-      <c r="R9">
-        <v>13.853509477214</v>
-      </c>
-      <c r="S9">
-        <v>0.2111059954477789</v>
-      </c>
-      <c r="T9">
-        <v>0.2111059954477789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1359286666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.407786</v>
-      </c>
-      <c r="I10">
-        <v>0.4675238613889764</v>
-      </c>
-      <c r="J10">
-        <v>0.4675238613889765</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.203187</v>
-      </c>
-      <c r="N10">
-        <v>3.609561</v>
-      </c>
-      <c r="O10">
-        <v>0.04797596040281741</v>
-      </c>
-      <c r="P10">
-        <v>0.0479759604028174</v>
-      </c>
-      <c r="Q10">
-        <v>0.1635476046606667</v>
-      </c>
-      <c r="R10">
-        <v>1.471928441946</v>
-      </c>
-      <c r="S10">
-        <v>0.02242990626136983</v>
-      </c>
-      <c r="T10">
-        <v>0.02242990626136983</v>
+        <v>0.1573584682443282</v>
       </c>
     </row>
   </sheetData>
